--- a/datamining/final_data/topic11_candidates.xlsx
+++ b/datamining/final_data/topic11_candidates.xlsx
@@ -436,1007 +436,1007 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="1" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.16448</v>
+        <v>1.664516</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('표본', '검정')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.16063</v>
+        <v>1.435932333333333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('기회', '제공')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6367699999999999</v>
+        <v>0.7175821666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.24306</v>
+        <v>0.6451316666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('시사점', '도출')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.15534</v>
+        <v>0.6173451666666667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('학교', '현장')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.18227</v>
+        <v>0.590963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('도움', '기대')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.73637</v>
+        <v>0.5289763333333333</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('문헌', '고찰')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1.76346</v>
+        <v>0.5253973333333334</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.07921</v>
+        <v>0.5219218333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('재량', '활동')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.09698</v>
+        <v>0.5127728333333332</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('기술', '발달')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.40052</v>
+        <v>0.5123845</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('문제', '해결능력')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06580999999999999</v>
+        <v>0.4909058333333334</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('집단', '통제')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.34588</v>
+        <v>0.4811275</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('스마트', '기기')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5450700000000001</v>
+        <v>0.4731158333333333</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('주도', '학습력')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.25134</v>
+        <v>0.4710683333333334</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('흥미', '유발')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.20699</v>
+        <v>0.447408</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('프레임', '임워크')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.52817</v>
+        <v>0.440042</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('긍정', '영향')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.5338</v>
+        <v>0.439873</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('수정', '보완')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.3056</v>
+        <v>0.4387131666666666</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('통계', '유의미')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.54321</v>
+        <v>0.4350535</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('통신', '기술')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.56388</v>
+        <v>0.4300853333333334</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('방안', '모색')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.34815</v>
+        <v>0.429922</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('혁명', '시대')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.23619</v>
+        <v>0.4293865000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('동기', '유발')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.07259</v>
+        <v>0.4095165</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('부족', '실정')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.32776</v>
+        <v>0.4090625</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('유의미', '차이')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.24412</v>
+        <v>0.4059778333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('설문', '조사')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.11019</v>
+        <v>0.3952381666666667</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('긍정', '반응')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.22839</v>
+        <v>0.3816733333333333</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('한계', '극복')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.41998</v>
+        <v>0.3431431666666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('학급', '홈페이지')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.19076</v>
+        <v>0.3393285</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('표준', '모델')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.25863</v>
+        <v>0.3392995</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('핵심', '역량')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.52669</v>
+        <v>0.33651</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('사후', '검사')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.10737</v>
+        <v>0.3265368333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('비판', '사고력')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.49824</v>
+        <v>0.3169496666666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('원격', '연수')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.10246</v>
+        <v>0.3103826666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('개선', '방안')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01448</v>
+        <v>0.3079385</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('통계', '유의')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.16508</v>
+        <v>0.306829</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('기여', '기대')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3669</v>
+        <v>0.3020841666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('설계', '구현')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.20823</v>
+        <v>0.2989966666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.09944</v>
+        <v>0.2983636666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('목적', '달성')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.19627</v>
+        <v>0.2946125000000001</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3893</v>
+        <v>0.2902568333333334</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('다중', '지능')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.12732</v>
+        <v>0.2867241666666667</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('학기', '동안')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.48245</v>
+        <v>0.2774316666666666</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('통제', '집단')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.39018</v>
+        <v>0.2715961666666666</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('사회', '연결망')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.48409</v>
+        <v>0.2500868333333334</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('자기', '주도')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.18835</v>
+        <v>0.2478296666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('실험', '집단')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.04222</v>
+        <v>0.2475971666666666</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.10524</v>
+        <v>0.2310863333333333</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('예비', '교원')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.38085</v>
+        <v>0.2255243333333333</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('문제', '해결')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.45277</v>
+        <v>0.2198835</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('정보', '통신')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.15992</v>
+        <v>0.2182166666666666</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('디지털', '리터러시')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.30687</v>
+        <v>0.2109333333333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('요구', '사항')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.24591</v>
+        <v>0.2099231666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('윤리', '의식')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.29557</v>
+        <v>0.2070286666666667</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('학업', '성취')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.72133</v>
+        <v>0.2047965</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.24771</v>
+        <v>0.1971945</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('학업', '성취도')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.5230900000000001</v>
+        <v>0.192937</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('성취', '기준')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.0636</v>
+        <v>0.1922463333333334</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('iptv', '유아')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.39823</v>
+        <v>0.1876526666666667</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('유의', '차이')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.39226</v>
+        <v>0.1846246666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('지속', '의향')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.5537</v>
+        <v>0.1833915</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('문제', '해결력')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.18541</v>
+        <v>0.1683838333333333</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('상관', '관계')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.26516</v>
+        <v>0.163673</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('사이버', '상담실')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.19878</v>
+        <v>0.1627505</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('성격', '유형')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.27939</v>
+        <v>0.1592223333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('피지컬', '컴퓨팅')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.14382</v>
+        <v>0.1590361666666667</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('논리', '사고력')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.26836</v>
+        <v>0.158234</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('지식', '창출')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.47838</v>
+        <v>0.1571765</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.03425</v>
+        <v>0.1521131666666666</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.05049</v>
+        <v>0.1334006666666666</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.47564</v>
+        <v>0.133055</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('컴퓨팅', '사고력')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.19828</v>
+        <v>0.132223</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('예비', '교사')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.13523</v>
+        <v>0.1314388333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('컴퓨팅', '사고')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.16481</v>
+        <v>0.1311665</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.16737</v>
+        <v>0.1307996666666666</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('영재', '판별')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.02685</v>
+        <v>0.1288791666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('정렬', '알고리즘')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.5508</v>
+        <v>0.122636</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('addie', '모형')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.36364</v>
+        <v>0.1219828333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('과제', '가치')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.09561</v>
+        <v>0.113838</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('중독', '치료')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.5509500000000001</v>
+        <v>0.1033713333333333</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.33417</v>
+        <v>0.09578116666666664</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('통신', '윤리')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.49616</v>
+        <v>0.09139699999999999</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('주의', '집중')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.35879</v>
+        <v>0.08971599999999999</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('인터넷', '중독')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.61433</v>
+        <v>0.084345</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('공공', '서비스')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.18571</v>
+        <v>0.078196</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('디지털', '스토리텔링')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.83612</v>
+        <v>0.07675816666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('사이버', '정학습')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.20241</v>
+        <v>0.07555116666666667</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('자기', '효능감')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.2646</v>
+        <v>0.075498</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.66922</v>
+        <v>0.06415033333333334</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('운영', '체제')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.18855</v>
+        <v>0.05584416666666666</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('자기', '조절')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.62481</v>
+        <v>0.051467</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('게임', '중독')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.53293</v>
+        <v>0.04675583333333333</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.24938</v>
+        <v>0.04588633333333333</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('사회', '실재감')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.57363</v>
+        <v>0.04253933333333334</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('ict', '리터러시')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.06521</v>
+        <v>0.02485833333333334</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('디자인', '사고')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.42413</v>
+        <v>0.02239433333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('코딩', '강사')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.57805</v>
+        <v>0.01232</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('과제', '표절')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.37017</v>
+        <v>0.009003666666666667</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('데이터', '시각')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.54391</v>
+        <v>-0.0003555000000000016</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic11_candidates.xlsx
+++ b/datamining/final_data/topic11_candidates.xlsx
@@ -452,991 +452,991 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('표본', '검정')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.435932333333333</v>
+        <v>1.664516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>('기회', '제공')</t>
+          <t>('표본', 't', '검정')</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7175821666666666</v>
+        <v>1.435932333333333</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('표본', 't')</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.6451316666666667</v>
+        <v>1.324466666666667</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>('시사점', '도출')</t>
+          <t>('t', '검정')</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6173451666666667</v>
+        <v>0.9993313333333332</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>('학교', '현장')</t>
+          <t>('인재', '양성', '위하')</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.590963</v>
+        <v>0.9964036666666668</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>('도움', '기대')</t>
+          <t>('동영', '상')</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.5289763333333333</v>
+        <v>0.8934891666666667</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('문헌', '고찰')</t>
+          <t>('찾', '을', '수')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.5253973333333334</v>
+        <v>0.7871971666666666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('ㄴ', '형태', '의')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.5219218333333333</v>
+        <v>0.6789083333333333</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5127728333333332</v>
+        <v>0.649061</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('기술', '발달')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5123845</v>
+        <v>0.6485673333333334</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결능력')</t>
+          <t>('는', '데', '있')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.4909058333333334</v>
+        <v>0.6207561666666666</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제')</t>
+          <t>('ㄴ', '인재', '양성')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.4811275</v>
+        <v>0.6144145</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('스마트', '기기')</t>
+          <t>('이', '같', '은')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.4731158333333333</v>
+        <v>0.6003748333333334</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습력')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4710683333333334</v>
+        <v>0.5998005</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('흥미', '유발')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.447408</v>
+        <v>0.5493808333333333</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('프레임', '임워크')</t>
+          <t>('있', '을', '것')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.440042</v>
+        <v>0.5446201666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '영향')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.439873</v>
+        <v>0.5408474999999999</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('수정', '보완')</t>
+          <t>('ㄴ', '기초', '자료')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4387131666666666</v>
+        <v>0.5276666666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의미')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.4350535</v>
+        <v>0.5262395</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술')</t>
+          <t>('것', '알', 'ㄹ')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4300853333333334</v>
+        <v>0.5231193333333333</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('방안', '모색')</t>
+          <t>('ㄴ', '관심', '높')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.429922</v>
+        <v>0.5158471666666666</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('혁명', '시대')</t>
+          <t>('얻', '을', '수')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4293865000000001</v>
+        <v>0.4727386666666666</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('동기', '유발')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4095165</v>
+        <v>0.4689576666666667</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('부족', '실정')</t>
+          <t>('기술', '의', '발달')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4090625</v>
+        <v>0.468176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('유의미', '차이')</t>
+          <t>('도움', '주', 'ㄹ')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4059778333333333</v>
+        <v>0.4659835000000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사')</t>
+          <t>('ㄹ', '필요', '있')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3952381666666667</v>
+        <v>0.4647975</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('긍정', '반응')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3816733333333333</v>
+        <v>0.464415</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('한계', '극복')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3431431666666667</v>
+        <v>0.4621245</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('학급', '홈페이지')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3393285</v>
+        <v>0.4562266666666667</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('표준', '모델')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3392995</v>
+        <v>0.451292</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('핵심', '역량')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.33651</v>
+        <v>0.4432866666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('사후', '검사')</t>
+          <t>('의', '자기', '주도')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3265368333333333</v>
+        <v>0.3931598333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('비판', '사고력')</t>
+          <t>('연구', '제시', 'ㄴ')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3169496666666667</v>
+        <v>0.3868173333333333</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('원격', '연수')</t>
+          <t>('예비', '교원', '의')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3103826666666667</v>
+        <v>0.3865478333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('개선', '방안')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3079385</v>
+        <v>0.3856208333333333</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('통계', '유의')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.306829</v>
+        <v>0.3756378333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('기여', '기대')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3020841666666667</v>
+        <v>0.371149</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('설계', '구현')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2989966666666667</v>
+        <v>0.3647883333333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('분석', '분석', '결과')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2983636666666666</v>
+        <v>0.3571825</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2946125000000001</v>
+        <v>0.349346</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('중', '의', '하나')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2902568333333334</v>
+        <v>0.3383801666666666</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('다중', '지능')</t>
+          <t>('영향', '주', '는')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2867241666666667</v>
+        <v>0.315383</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('학기', '동안')</t>
+          <t>('다는', '점', '의의')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2774316666666666</v>
+        <v>0.3143285</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('통제', '집단')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2715961666666666</v>
+        <v>0.3110366666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('사회', '연결망')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2500868333333334</v>
+        <v>0.3009611666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2478296666666666</v>
+        <v>0.2975831666666666</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('실험', '집단')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2475971666666666</v>
+        <v>0.2955541666666667</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('스마트폰', '중독')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2310863333333333</v>
+        <v>0.2943421666666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2255243333333333</v>
+        <v>0.2860853333333334</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2198835</v>
+        <v>0.2739578333333333</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신')</t>
+          <t>('향상', '긍정', 'ㄴ')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2182166666666666</v>
+        <v>0.2688915</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '리터러시')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2109333333333333</v>
+        <v>0.2652946666666667</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('요구', '사항')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2099231666666667</v>
+        <v>0.2652946666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('윤리', '의식')</t>
+          <t>('는', '영향', '분석')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2070286666666667</v>
+        <v>0.2635943333333333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2047965</v>
+        <v>0.2609115</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1971945</v>
+        <v>0.2573853333333333</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('학업', '성취도')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.192937</v>
+        <v>0.2556735</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('성취', '기준')</t>
+          <t>('수준', '맞', '는')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.1922463333333334</v>
+        <v>0.253164</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('iptv', '유아')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1876526666666667</v>
+        <v>0.2407013333333333</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('유의', '차이')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1846246666666667</v>
+        <v>0.2275961666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('지속', '의향')</t>
+          <t>('유', '미', 'ㄴ')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1833915</v>
+        <v>0.2228925</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('문제', '해결력')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1683838333333333</v>
+        <v>0.2198705</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('상관', '관계')</t>
+          <t>('의', '스', '마')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.163673</v>
+        <v>0.2170646666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담실')</t>
+          <t>('학습자', '중심', '의')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1627505</v>
+        <v>0.2138603333333333</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('성격', '유형')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1592223333333333</v>
+        <v>0.1988971666666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('피지컬', '컴퓨팅')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1590361666666667</v>
+        <v>0.1941236666666666</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('논리', '사고력')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.158234</v>
+        <v>0.1887845</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('지식', '창출')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1571765</v>
+        <v>0.1722971666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1521131666666666</v>
+        <v>0.1701605</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('프로그래밍', '언어')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1334006666666666</v>
+        <v>0.162848</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.133055</v>
+        <v>0.1591868333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고력')</t>
+          <t>('로봇', '활용', 'sw')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.132223</v>
+        <v>0.1583776666666667</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교사')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1314388333333333</v>
+        <v>0.1539011666666666</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사고')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1311665</v>
+        <v>0.1535975</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1307996666666666</v>
+        <v>0.1521111666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('영재', '판별')</t>
+          <t>('그리', 'ㄴ', 'it')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1288791666666667</v>
+        <v>0.1507953333333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('정렬', '알고리즘')</t>
+          <t>('초점', '맞추', 'ㄴ')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.122636</v>
+        <v>0.1404836666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('addie', '모형')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1219828333333333</v>
+        <v>0.1402953333333333</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('과제', '가치')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.113838</v>
+        <v>0.1393736666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('중독', '치료')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1033713333333333</v>
+        <v>0.1391281666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.09578116666666664</v>
+        <v>0.1370611666666667</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.09139699999999999</v>
+        <v>0.1343241666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('주의', '집중')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.08971599999999999</v>
+        <v>0.1307996666666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('인터넷', '중독')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.084345</v>
+        <v>0.1301696666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('공공', '서비스')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.078196</v>
+        <v>0.1018776666666667</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스토리텔링')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.07675816666666666</v>
+        <v>0.09791366666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '정학습')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.07555116666666667</v>
+        <v>0.09614733333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('자기', '효능감')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.075498</v>
+        <v>0.08881833333333333</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.06415033333333334</v>
+        <v>0.08662483333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('운영', '체제')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05584416666666666</v>
+        <v>0.08597300000000002</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.051467</v>
+        <v>0.0724675</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('게임', '중독')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.04675583333333333</v>
+        <v>0.06414966666666666</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.04588633333333333</v>
+        <v>0.05861566666666665</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('사회', '실재감')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.04253933333333334</v>
+        <v>0.05477499999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('ict', '리터러시')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.02485833333333334</v>
+        <v>0.05092016666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('디자인', '사고')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.02239433333333333</v>
+        <v>0.04588633333333333</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('코딩', '강사')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.01232</v>
+        <v>0.03910283333333334</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="inlineStr">
         <is>
-          <t>('과제', '표절')</t>
+          <t>('교사', '보조', '로봇')</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.009003666666666667</v>
+        <v>0.03206433333333333</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
         <is>
-          <t>('데이터', '시각')</t>
+          <t>('데이터', '시각', '교육')</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.0003555000000000016</v>
+        <v>-0.007237666666666667</v>
       </c>
     </row>
   </sheetData>

--- a/datamining/final_data/topic11_candidates.xlsx
+++ b/datamining/final_data/topic11_candidates.xlsx
@@ -442,7 +442,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본')</t>
+          <t>('대응', '표본', 't')</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -452,7 +452,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>('대응', '표본', 't')</t>
+          <t>('대응', '표본')</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -512,891 +512,891 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>('찾', '을', '수')</t>
+          <t>('동', '영', '상')</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7871971666666666</v>
+        <v>0.649061</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '형태', '의')</t>
+          <t>('인재', '양성')</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6789083333333333</v>
+        <v>0.6485673333333334</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>('동', '영', '상')</t>
+          <t>('실험', '집단', '통제')</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.649061</v>
+        <v>0.5998005</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>('인재', '양성')</t>
+          <t>('집단', '통제', '집단')</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.6485673333333334</v>
+        <v>0.5998005</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>('는', '데', '있')</t>
+          <t>('간', '상호', '작용')</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.6207561666666666</v>
+        <v>0.5653041666666667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '인재', '양성')</t>
+          <t>('과정', '표준', '모델')</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.6144145</v>
+        <v>0.5493808333333333</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>('이', '같', '은')</t>
+          <t>('것', '알', '수')</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.6003748333333334</v>
+        <v>0.5427031666666666</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>('집단', '통제', '집단')</t>
+          <t>('차', '산업', '혁명')</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5998005</v>
+        <v>0.5408474999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>('과정', '표준', '모델')</t>
+          <t>('산업', '혁명')</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5493808333333333</v>
+        <v>0.5262395</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>('있', '을', '것')</t>
+          <t>('그', '효과', '검증')</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5446201666666666</v>
+        <v>0.5174871666666666</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>('차', '산업', '혁명')</t>
+          <t>('대하', '관심', '높')</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5408474999999999</v>
+        <v>0.5158471666666666</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '기초', '자료')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.5276666666666667</v>
+        <v>0.4689576666666667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.5262395</v>
+        <v>0.464415</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>('것', '알', 'ㄹ')</t>
+          <t>('분석', '그', '결과')</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.5231193333333333</v>
+        <v>0.4621245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('ㄴ', '관심', '높')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.5158471666666666</v>
+        <v>0.4562266666666667</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>('얻', '을', '수')</t>
+          <t>('다음', '같')</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4727386666666666</v>
+        <v>0.4546091666666667</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4689576666666667</v>
+        <v>0.451292</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('기술', '의', '발달')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.468176</v>
+        <v>0.4432866666666667</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('도움', '주', 'ㄹ')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.4659835000000001</v>
+        <v>0.437187</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('ㄹ', '필요', '있')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4647975</v>
+        <v>0.434652</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('도움', '주', '수')</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.464415</v>
+        <v>0.4176428333333334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>('분석', '그', '결과')</t>
+          <t>('있', '알', '수')</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4621245</v>
+        <v>0.4100416666666666</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('체계', '문헌', '고찰')</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4562266666666667</v>
+        <v>0.3856208333333333</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.451292</v>
+        <v>0.371149</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.4432866666666667</v>
+        <v>0.3647883333333333</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>('의', '자기', '주도')</t>
+          <t>('향상', '긍정', '영향')</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3931598333333333</v>
+        <v>0.3579788333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>('연구', '제시', 'ㄴ')</t>
+          <t>('영향', '주', '것')</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3868173333333333</v>
+        <v>0.3493168333333334</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('예비', '교원', '의')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3865478333333333</v>
+        <v>0.3297298333333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('체계', '문헌', '고찰')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3856208333333333</v>
+        <v>0.3295751666666666</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3756378333333333</v>
+        <v>0.3128756666666667</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.371149</v>
+        <v>0.3110366666666667</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3647883333333333</v>
+        <v>0.3009611666666667</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('분석', '분석', '결과')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3571825</v>
+        <v>0.2975831666666666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.349346</v>
+        <v>0.2955541666666667</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('중', '의', '하나')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.3383801666666666</v>
+        <v>0.2943421666666667</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>('영향', '주', '는')</t>
+          <t>('유', '미')</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.315383</v>
+        <v>0.2860853333333334</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>('다는', '점', '의의')</t>
+          <t>('d', '프린터')</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.3143285</v>
+        <v>0.2739578333333333</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.3110366666666667</v>
+        <v>0.2652946666666667</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('정보교육', '학')</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.3009611666666667</v>
+        <v>0.2652946666666667</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2975831666666666</v>
+        <v>0.2609115</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2955541666666667</v>
+        <v>0.2573853333333333</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2943421666666667</v>
+        <v>0.2556735</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>('유', '미')</t>
+          <t>('미치', '영향', '분석')</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2860853333333334</v>
+        <v>0.253255</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린터')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2739578333333333</v>
+        <v>0.2388121666666667</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('향상', '긍정', 'ㄴ')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2688915</v>
+        <v>0.2340175</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2652946666666667</v>
+        <v>0.2314643333333334</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2652946666666667</v>
+        <v>0.2275961666666667</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>('는', '영향', '분석')</t>
+          <t>('방법', '평가', '방법')</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2635943333333333</v>
+        <v>0.2225295</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('학', '회')</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2609115</v>
+        <v>0.2198705</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('의사', '결정')</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.2573853333333333</v>
+        <v>0.1988971666666667</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('글', '쓰')</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.2556735</v>
+        <v>0.1941236666666666</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('수준', '맞', '는')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.253164</v>
+        <v>0.193231</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.2407013333333333</v>
+        <v>0.1887845</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.2275961666666667</v>
+        <v>0.1883476666666667</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('유', '미', 'ㄴ')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.2228925</v>
+        <v>0.1770276666666667</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('학', '회')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.2198705</v>
+        <v>0.1751391666666667</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>('의', '스', '마')</t>
+          <t>('컴퓨팅', '사', '사고력')</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2170646666666667</v>
+        <v>0.1722971666666667</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('학습자', '중심', '의')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.2138603333333333</v>
+        <v>0.1701605</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>('의사', '결정')</t>
+          <t>('디지털교과서', '서')</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1988971666666667</v>
+        <v>0.1591868333333333</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1941236666666666</v>
+        <v>0.1545725</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('마', '스마트폰')</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1887845</v>
+        <v>0.1539011666666666</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('컴퓨팅', '사', '사고력')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1722971666666667</v>
+        <v>0.1539011666666666</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1701605</v>
+        <v>0.1535975</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서', '활용')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.162848</v>
+        <v>0.1521111666666667</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '서')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1591868333333333</v>
+        <v>0.1507953333333333</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '활용', 'sw')</t>
+          <t>('디지털교과서', '서', '활용')</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1583776666666667</v>
+        <v>0.1486918333333333</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('학습', '지속', '의향')</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1539011666666666</v>
+        <v>0.1402953333333333</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('마', '스마트폰', '사용')</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1535975</v>
+        <v>0.1393736666666667</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1521111666666667</v>
+        <v>0.1391281666666667</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'ㄴ', 'it')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1507953333333333</v>
+        <v>0.1370611666666667</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추', 'ㄴ')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1404836666666667</v>
+        <v>0.1343241666666667</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>('학습', '지속', '의향')</t>
+          <t>('중도', '탈락')</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1402953333333333</v>
+        <v>0.1307996666666666</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '사용')</t>
+          <t>('통신', '윤리', '교육')</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1393736666666667</v>
+        <v>0.1279726666666667</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('게임', '중독', '치료')</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1391281666666667</v>
+        <v>0.1145441666666667</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('정보', '과학', '영재')</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.1370611666666667</v>
+        <v>0.104128</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('주도', '학습', '능력')</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1343241666666667</v>
+        <v>0.1018776666666667</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('중도', '탈락')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.1307996666666666</v>
+        <v>0.09791366666666666</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '교육')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1301696666666667</v>
+        <v>0.09633900000000001</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('주도', '학습', '능력')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1018776666666667</v>
+        <v>0.09614733333333333</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09791366666666666</v>
+        <v>0.09287583333333334</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09614733333333333</v>
+        <v>0.08881833333333333</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('자', '기', '주도')</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08881833333333333</v>
+        <v>0.08597300000000002</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('통신', '기술', '활용')</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.08662483333333333</v>
+        <v>0.07475566666666666</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('자', '기', '주도')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.08597300000000002</v>
+        <v>0.0724675</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.0724675</v>
+        <v>0.06414966666666666</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.06414966666666666</v>
+        <v>0.05861566666666665</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('기', '주도', '학습')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05861566666666665</v>
+        <v>0.05477499999999999</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05477499999999999</v>
+        <v>0.05092016666666667</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05092016666666667</v>
+        <v>0.05056366666666667</v>
       </c>
     </row>
     <row r="98">

--- a/datamining/final_data/topic11_candidates.xlsx
+++ b/datamining/final_data/topic11_candidates.xlsx
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.664516</v>
+        <v>1.63978</v>
       </c>
     </row>
     <row r="3">
@@ -456,7 +456,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1.664516</v>
+        <v>1.63978</v>
       </c>
     </row>
     <row r="4">
@@ -466,7 +466,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.435932333333333</v>
+        <v>1.411465416666667</v>
       </c>
     </row>
     <row r="5">
@@ -476,7 +476,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.324466666666667</v>
+        <v>1.299425833333333</v>
       </c>
     </row>
     <row r="6">
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9993313333333332</v>
+        <v>0.9730191666666665</v>
       </c>
     </row>
     <row r="7">
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9964036666666668</v>
+        <v>0.9709445833333334</v>
       </c>
     </row>
     <row r="8">
@@ -506,7 +506,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.8934891666666667</v>
+        <v>0.8801339583333334</v>
       </c>
     </row>
     <row r="9">
@@ -516,7 +516,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.649061</v>
+        <v>0.63618375</v>
       </c>
     </row>
     <row r="10">
@@ -526,7 +526,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.6485673333333334</v>
+        <v>0.6256741666666668</v>
       </c>
     </row>
     <row r="11">
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.5998005</v>
+        <v>0.575778125</v>
       </c>
     </row>
     <row r="12">
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.5998005</v>
+        <v>0.575778125</v>
       </c>
     </row>
     <row r="13">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5653041666666667</v>
+        <v>0.5436252083333334</v>
       </c>
     </row>
     <row r="14">
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.5493808333333333</v>
+        <v>0.5326510416666667</v>
       </c>
     </row>
     <row r="15">
@@ -576,7 +576,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5427031666666666</v>
+        <v>0.5190039583333332</v>
       </c>
     </row>
     <row r="16">
@@ -586,7 +586,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5408474999999999</v>
+        <v>0.511231875</v>
       </c>
     </row>
     <row r="17">
@@ -596,7 +596,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.5262395</v>
+        <v>0.4974243749999999</v>
       </c>
     </row>
     <row r="18">
@@ -606,7 +606,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.5174871666666666</v>
+        <v>0.4932714583333333</v>
       </c>
     </row>
     <row r="19">
@@ -616,27 +616,27 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.5158471666666666</v>
+        <v>0.4902439583333333</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>('결과', '다음', '같')</t>
+          <t>('재량', '활동', '시간')</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4689576666666667</v>
+        <v>0.45022125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>('재량', '활동', '시간')</t>
+          <t>('결과', '다음', '같')</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.464415</v>
+        <v>0.4430370833333334</v>
       </c>
     </row>
     <row r="22">
@@ -646,17 +646,17 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4621245</v>
+        <v>0.4372831250000001</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>('산업', '혁명', '시대')</t>
+          <t>('메', '타')</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4562266666666667</v>
+        <v>0.43486</v>
       </c>
     </row>
     <row r="24">
@@ -666,47 +666,47 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.4546091666666667</v>
+        <v>0.4290589583333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>('메', '타')</t>
+          <t>('산업', '혁명', '시대')</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.451292</v>
+        <v>0.4254983333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>('지식', '정보', '사회')</t>
+          <t>('통신', '기술', '교육')</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4432866666666667</v>
+        <v>0.42336</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>('영향', '미치', '것')</t>
+          <t>('지식', '정보', '사회')</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.437187</v>
+        <v>0.4220283333333333</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>('통신', '기술', '교육')</t>
+          <t>('영향', '미치', '것')</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.434652</v>
+        <v>0.41531125</v>
       </c>
     </row>
     <row r="29">
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4176428333333334</v>
+        <v>0.3960435416666667</v>
       </c>
     </row>
     <row r="30">
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.4100416666666666</v>
+        <v>0.3828720833333333</v>
       </c>
     </row>
     <row r="31">
@@ -736,27 +736,27 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.3856208333333333</v>
+        <v>0.3772760416666666</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>('설문', '조사', '실시')</t>
+          <t>('애', '플리케이션')</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.371149</v>
+        <v>0.3523579166666667</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>('애', '플리케이션')</t>
+          <t>('설문', '조사', '실시')</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3647883333333333</v>
+        <v>0.34964375</v>
       </c>
     </row>
     <row r="34">
@@ -766,7 +766,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3579788333333333</v>
+        <v>0.3340785416666667</v>
       </c>
     </row>
     <row r="35">
@@ -776,87 +776,87 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.3493168333333334</v>
+        <v>0.3281685416666667</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>('세기', '지식', '정보')</t>
+          <t>('전자', '책')</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.3297298333333333</v>
+        <v>0.3197189583333333</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>('전자', '책')</t>
+          <t>('세기', '지식', '정보')</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.3295751666666666</v>
+        <v>0.3088247916666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>('시스템', '설계', '구현')</t>
+          <t>('스', '스마트', '교육')</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.3128756666666667</v>
+        <v>0.2989683333333333</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>('스', '스마트', '교육')</t>
+          <t>('시스템', '설계', '구현')</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.3110366666666667</v>
+        <v>0.2945845833333333</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후')</t>
+          <t>('상호', '작용')</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.3009611666666667</v>
+        <v>0.2803327083333333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>('사전', '사후', '검사')</t>
+          <t>('사전', '사후')</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.2975831666666666</v>
+        <v>0.2753589583333333</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>('점', '의의', '있')</t>
+          <t>('사전', '사후', '검사')</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.2955541666666667</v>
+        <v>0.2699064583333333</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>('상호', '작용')</t>
+          <t>('점', '의의', '있')</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.2943421666666667</v>
+        <v>0.2654077083333334</v>
       </c>
     </row>
     <row r="44">
@@ -866,7 +866,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.2860853333333334</v>
+        <v>0.2635916666666667</v>
       </c>
     </row>
     <row r="45">
@@ -876,17 +876,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.2739578333333333</v>
+        <v>0.2625372916666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>('정보교육', '학', '회')</t>
+          <t>('로봇', '보조', '학습')</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.2652946666666667</v>
+        <v>0.2493566666666666</v>
       </c>
     </row>
     <row r="47">
@@ -896,37 +896,37 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.2652946666666667</v>
+        <v>0.2486508333333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>('학생', '명', '대상')</t>
+          <t>('정보교육', '학', '회')</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.2609115</v>
+        <v>0.2486508333333333</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>('로봇', '보조', '학습')</t>
+          <t>('영', '재')</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.2573853333333333</v>
+        <v>0.239564375</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>('영', '재')</t>
+          <t>('학생', '명', '대상')</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.2556735</v>
+        <v>0.235506875</v>
       </c>
     </row>
     <row r="51">
@@ -936,47 +936,47 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.253255</v>
+        <v>0.23263875</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>('학년', '학생', '명')</t>
+          <t>('통신', '윤리', '의식')</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2388121666666667</v>
+        <v>0.226089375</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>('통신', '윤리', '의식')</t>
+          <t>('앱', '개발', '교육')</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.2340175</v>
+        <v>0.2233052083333333</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>('자기', '주도', '학습')</t>
+          <t>('학년', '학생', '명')</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.2314643333333334</v>
+        <v>0.2178802083333333</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>('앱', '개발', '교육')</t>
+          <t>('자기', '주도', '학습')</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.2275961666666667</v>
+        <v>0.2163354166666667</v>
       </c>
     </row>
     <row r="56">
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.2225295</v>
+        <v>0.207874375</v>
       </c>
     </row>
     <row r="57">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.2198705</v>
+        <v>0.203205625</v>
       </c>
     </row>
     <row r="58">
@@ -1006,7 +1006,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1988971666666667</v>
+        <v>0.1873814583333333</v>
       </c>
     </row>
     <row r="59">
@@ -1016,57 +1016,57 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.1941236666666666</v>
+        <v>0.1839795833333333</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>('초점', '맞추')</t>
+          <t>('마', '스마트폰', '중독')</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.193231</v>
+        <v>0.1810170833333333</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>('목적', '달성', '위하')</t>
+          <t>('초점', '맞추')</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.1887845</v>
+        <v>0.17287625</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>('마', '스마트폰', '중독')</t>
+          <t>('디지털교과서', '과서', '사용')</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.1883476666666667</v>
+        <v>0.1661139583333333</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>('교육', '프로그래밍', '언어')</t>
+          <t>('d', '프린팅')</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.1770276666666667</v>
+        <v>0.164915625</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서', '사용')</t>
+          <t>('목적', '달성', '위하')</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.1751391666666667</v>
+        <v>0.163988125</v>
       </c>
     </row>
     <row r="65">
@@ -1076,17 +1076,17 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.1722971666666667</v>
+        <v>0.1619114583333333</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>('d', '프린팅')</t>
+          <t>('교육', '프로그래밍', '언어')</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1701605</v>
+        <v>0.1604145833333333</v>
       </c>
     </row>
     <row r="67">
@@ -1096,17 +1096,17 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1591868333333333</v>
+        <v>0.1524685416666667</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>('학습', '방법', '평가')</t>
+          <t>('스', '마', '스마트폰')</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1545725</v>
+        <v>0.1476689583333333</v>
       </c>
     </row>
     <row r="69">
@@ -1116,47 +1116,47 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.1539011666666666</v>
+        <v>0.1476689583333333</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>('스', '마', '스마트폰')</t>
+          <t>('그리', 'it')</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.1539011666666666</v>
+        <v>0.1447966666666667</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>('초등', '예비', '교사')</t>
+          <t>('디지털교과서', '과서')</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.1535975</v>
+        <v>0.1445689583333333</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>('디지털교과서', '과서')</t>
+          <t>('학습', '방법', '평가')</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.1521111666666667</v>
+        <v>0.142593125</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>('그리', 'it')</t>
+          <t>('초등', '예비', '교사')</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.1507953333333333</v>
+        <v>0.141429375</v>
       </c>
     </row>
     <row r="74">
@@ -1166,7 +1166,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.1486918333333333</v>
+        <v>0.1399147916666667</v>
       </c>
     </row>
     <row r="75">
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.1402953333333333</v>
+        <v>0.1366741666666667</v>
       </c>
     </row>
     <row r="76">
@@ -1186,37 +1186,37 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1393736666666667</v>
+        <v>0.1320545833333333</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>('자', '기')</t>
+          <t>('사이버', '상담', '시스템')</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1391281666666667</v>
+        <v>0.1307614583333333</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '상담', '시스템')</t>
+          <t>('증강', '현실')</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1370611666666667</v>
+        <v>0.1287202083333333</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>('증강', '현실')</t>
+          <t>('자', '기')</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1343241666666667</v>
+        <v>0.1258827083333333</v>
       </c>
     </row>
     <row r="80">
@@ -1226,7 +1226,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.1307996666666666</v>
+        <v>0.1233420833333333</v>
       </c>
     </row>
     <row r="81">
@@ -1236,7 +1236,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.1279726666666667</v>
+        <v>0.1213983333333333</v>
       </c>
     </row>
     <row r="82">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.1145441666666667</v>
+        <v>0.1059127083333334</v>
       </c>
     </row>
     <row r="83">
@@ -1256,7 +1256,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.104128</v>
+        <v>0.100585</v>
       </c>
     </row>
     <row r="84">
@@ -1266,57 +1266,57 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.1018776666666667</v>
+        <v>0.09167208333333332</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>('computational', 'thinking')</t>
+          <t>('정보', '통신', '윤리')</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.09791366666666666</v>
+        <v>0.08814229166666668</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>('문제', '중심', '학습')</t>
+          <t>('글', '쓰', '기')</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.09633900000000001</v>
+        <v>0.08777666666666667</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>('글', '쓰', '기')</t>
+          <t>('문제', '중심', '학습')</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.09614733333333333</v>
+        <v>0.08773625000000002</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>('정보', '통신', '윤리')</t>
+          <t>('정보', '활용', '능력')</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.09287583333333334</v>
+        <v>0.08354041666666666</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>('정보', '활용', '능력')</t>
+          <t>('computational', 'thinking')</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.08881833333333333</v>
+        <v>0.08068708333333333</v>
       </c>
     </row>
     <row r="90">
@@ -1326,7 +1326,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08597300000000002</v>
+        <v>0.07400125000000002</v>
       </c>
     </row>
     <row r="91">
@@ -1336,27 +1336,27 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.07475566666666666</v>
+        <v>0.06882708333333333</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>('정보', '영', '재')</t>
+          <t>('학급', '경영')</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.0724675</v>
+        <v>0.06037958333333333</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>('학급', '경영')</t>
+          <t>('정보', '영', '재')</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.06414966666666666</v>
+        <v>0.05693187500000001</v>
       </c>
     </row>
     <row r="94">
@@ -1366,57 +1366,57 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05861566666666665</v>
+        <v>0.04651708333333332</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="inlineStr">
         <is>
-          <t>('디지털', '스', '스토리텔링')</t>
+          <t>('사이버', '가', '정학습')</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.05477499999999999</v>
+        <v>0.04599520833333334</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>('사이버', '가', '정학습')</t>
+          <t>('디지털', '스', '스토리텔링')</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.05092016666666667</v>
+        <v>0.04491124999999999</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>('이', '따르', '논문')</t>
+          <t>('플립', '러닝')</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.05056366666666667</v>
+        <v>0.04090541666666667</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
         <is>
-          <t>('플립', '러닝')</t>
+          <t>('자기', '조절', '학습')</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.04588633333333333</v>
+        <v>0.03477104166666667</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
         <is>
-          <t>('자기', '조절', '학습')</t>
+          <t>('이', '따르', '논문')</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.03910283333333334</v>
+        <v>0.02819208333333334</v>
       </c>
     </row>
     <row r="100">
@@ -1426,7 +1426,7 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.03206433333333333</v>
+        <v>0.02647791666666667</v>
       </c>
     </row>
     <row r="101">
@@ -1436,7 +1436,7 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>-0.007237666666666667</v>
+        <v>-0.01592208333333333</v>
       </c>
     </row>
   </sheetData>
